--- a/NformTester/NformTester/Keywordscripts/600.20.30.160_AddingTwoActions.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.160_AddingTwoActions.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7549" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7573" uniqueCount="837">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4027,7 +4027,21 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4044,74 +4058,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4543,7 +4489,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4820,10 +4766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5034,7 +4980,7 @@
         <v>773</v>
       </c>
       <c r="B7" s="15">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C7" s="8">
         <v>6</v>
@@ -6562,14 +6508,12 @@
         <v>306</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>822</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" s="8"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -6582,13 +6526,13 @@
         <v>64</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>306</v>
+        <v>790</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>2</v>
@@ -6606,13 +6550,13 @@
         <v>65</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>836</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>801</v>
+        <v>790</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>2</v>
@@ -6630,16 +6574,20 @@
         <v>66</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="F67" s="8">
-        <v>5</v>
-      </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
+        <v>306</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>822</v>
+      </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -6658,7 +6606,7 @@
         <v>306</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>2</v>
@@ -6671,16 +6619,22 @@
       <c r="M68" s="8"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="3:15" ht="15">
+    <row r="69" spans="3:15">
       <c r="C69" s="8">
         <v>68</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="D69" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -6694,25 +6648,22 @@
         <v>69</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
+        <v>756</v>
+      </c>
+      <c r="F70" s="8">
+        <v>5</v>
+      </c>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
       <c r="N70" s="10"/>
-      <c r="O70" s="25"/>
     </row>
     <row r="71" spans="3:15">
       <c r="C71" s="8">
@@ -6722,49 +6673,39 @@
         <v>788</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H71" s="8"/>
-      <c r="I71" s="6"/>
+      <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
       <c r="N71" s="10"/>
-      <c r="O71" s="25"/>
     </row>
-    <row r="72" spans="3:15">
+    <row r="72" spans="3:15" ht="15">
       <c r="C72" s="8">
         <v>71</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>828</v>
-      </c>
+      <c r="D72" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
       <c r="N72" s="10"/>
-      <c r="O72" s="25"/>
     </row>
     <row r="73" spans="3:15">
       <c r="C73" s="8">
@@ -6774,16 +6715,16 @@
         <v>788</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H73" s="6"/>
-      <c r="I73" s="8"/>
+      <c r="I73" s="6"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
@@ -6799,17 +6740,15 @@
         <v>788</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>829</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H74" s="8"/>
       <c r="I74" s="6"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -6826,16 +6765,18 @@
         <v>788</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>174</v>
+        <v>309</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
@@ -6851,16 +6792,16 @@
         <v>788</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
+      <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
@@ -6876,16 +6817,16 @@
         <v>788</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>378</v>
+        <v>315</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="8"/>
@@ -6903,10 +6844,10 @@
         <v>788</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>2</v>
@@ -6928,10 +6869,10 @@
         <v>788</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>2</v>
@@ -6953,15 +6894,17 @@
         <v>788</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>99</v>
+        <v>378</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H80" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>830</v>
+      </c>
       <c r="I80" s="6"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -6978,10 +6921,10 @@
         <v>788</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>2</v>
@@ -7003,18 +6946,16 @@
         <v>788</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>306</v>
+        <v>377</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="I82" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
@@ -7030,16 +6971,16 @@
         <v>788</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
@@ -7052,60 +6993,62 @@
         <v>83</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>836</v>
+        <v>788</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>833</v>
+        <v>310</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
       <c r="N84" s="10"/>
+      <c r="O84" s="25"/>
     </row>
     <row r="85" spans="3:15">
       <c r="C85" s="8">
         <v>84</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>834</v>
+        <v>788</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="F85" s="8">
-        <v>5</v>
-      </c>
-      <c r="G85" s="8"/>
-      <c r="H85" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="8"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
       <c r="N85" s="10"/>
-      <c r="O85" s="25"/>
     </row>
     <row r="86" spans="3:15">
       <c r="C86" s="8">
         <v>85</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>306</v>
+        <v>790</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>2</v>
@@ -7117,18 +7060,23 @@
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
       <c r="N86" s="10"/>
-      <c r="O86" s="25"/>
     </row>
-    <row r="87" spans="3:15" ht="15">
+    <row r="87" spans="3:15">
       <c r="C87" s="8">
         <v>86</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>802</v>
-      </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
+      <c r="D87" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
@@ -7142,22 +7090,27 @@
         <v>87</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="F88" s="8">
-        <v>5</v>
-      </c>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
+        <v>306</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>828</v>
+      </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
       <c r="N88" s="10"/>
+      <c r="O88" s="25"/>
     </row>
     <row r="89" spans="3:15">
       <c r="C89" s="8">
@@ -7167,40 +7120,41 @@
         <v>788</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
       <c r="M89" s="8"/>
       <c r="N89" s="10"/>
+      <c r="O89" s="25"/>
     </row>
     <row r="90" spans="3:15">
       <c r="C90" s="8">
         <v>89</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>805</v>
+        <v>836</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>19</v>
+        <v>833</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
@@ -7212,68 +7166,60 @@
         <v>90</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>805</v>
+        <v>834</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>797</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="F91" s="8">
+        <v>5</v>
+      </c>
+      <c r="G91" s="8"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
       <c r="N91" s="10"/>
+      <c r="O91" s="25"/>
     </row>
-    <row r="92" spans="3:15" ht="14.25">
+    <row r="92" spans="3:15">
       <c r="C92" s="8">
         <v>91</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>806</v>
+        <v>306</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H92" s="12"/>
+      <c r="H92" s="8"/>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
       <c r="N92" s="10"/>
+      <c r="O92" s="25"/>
     </row>
-    <row r="93" spans="3:15">
+    <row r="93" spans="3:15" ht="15">
       <c r="C93" s="8">
         <v>92</v>
       </c>
-      <c r="D93" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H93" s="6"/>
+      <c r="D93" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -7286,19 +7232,17 @@
         <v>93</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
+        <v>804</v>
+      </c>
+      <c r="F94" s="8">
+        <v>5</v>
+      </c>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
@@ -7310,44 +7254,190 @@
         <v>94</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="F95" s="8">
-        <v>3</v>
-      </c>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
       <c r="N95" s="10"/>
     </row>
+    <row r="96" spans="3:15">
+      <c r="C96" s="8">
+        <v>95</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="10"/>
+    </row>
+    <row r="97" spans="3:14">
+      <c r="C97" s="8">
+        <v>96</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="10"/>
+    </row>
+    <row r="98" spans="3:14" ht="14.25">
+      <c r="C98" s="8">
+        <v>97</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" s="12"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="10"/>
+    </row>
+    <row r="99" spans="3:14">
+      <c r="C99" s="8">
+        <v>98</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H99" s="6"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="10"/>
+    </row>
+    <row r="100" spans="3:14">
+      <c r="C100" s="8">
+        <v>99</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="10"/>
+    </row>
+    <row r="101" spans="3:14">
+      <c r="C101" s="8">
+        <v>100</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="F101" s="8">
+        <v>3</v>
+      </c>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N95">
-    <cfRule type="cellIs" dxfId="1" priority="57" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N101">
+    <cfRule type="cellIs" dxfId="3" priority="57" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="58" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D95 D89 D84 D54:D60 D63:D68 D28:D52 D3 D7:D22 D26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D101 D95 D90 D54:D60 D26 D28:D52 D3 D7:D22 D63:D71 D85:D87">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F101">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G92:G95 G2:G90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G98:G101 G2:G96">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E101">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.160_AddingTwoActions.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.160_AddingTwoActions.xlsx
@@ -3725,10 +3725,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Create shutdownclient action.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3773,6 +3769,10 @@
   </si>
   <si>
     <t>;</t>
+  </si>
+  <si>
+    <t>$NAME_ACTION_SearchStart_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4027,21 +4027,7 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4768,8 +4754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5358,7 +5344,7 @@
         <v>13</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="3"/>
@@ -5572,7 +5558,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -5591,7 +5577,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>19</v>
@@ -5616,7 +5602,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>19</v>
@@ -5641,7 +5627,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>306</v>
@@ -5656,7 +5642,7 @@
         <v>791</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J30" s="3" t="b">
         <v>1</v>
@@ -5695,7 +5681,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>306</v>
@@ -5720,7 +5706,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>310</v>
@@ -5732,7 +5718,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -5747,7 +5733,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>310</v>
@@ -5774,7 +5760,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>310</v>
@@ -5849,7 +5835,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>370</v>
@@ -5861,7 +5847,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="3"/>
@@ -5876,7 +5862,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>370</v>
@@ -5953,7 +5939,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>377</v>
@@ -5978,7 +5964,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>379</v>
@@ -5990,7 +5976,7 @@
         <v>4</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -6017,7 +6003,7 @@
         <v>4</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="3"/>
@@ -6044,7 +6030,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -6061,7 +6047,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>379</v>
@@ -6111,7 +6097,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>370</v>
@@ -6136,7 +6122,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>370</v>
@@ -6161,7 +6147,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>310</v>
@@ -6186,7 +6172,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>306</v>
@@ -6624,7 +6610,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>801</v>
@@ -6694,7 +6680,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -6774,7 +6760,7 @@
         <v>56</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
@@ -6826,7 +6812,7 @@
         <v>56</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="8"/>
@@ -6903,7 +6889,7 @@
         <v>56</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="8"/>
@@ -7102,7 +7088,7 @@
         <v>56</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
@@ -7142,10 +7128,10 @@
         <v>89</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>200</v>
@@ -7166,10 +7152,10 @@
         <v>90</v>
       </c>
       <c r="D91" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>834</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>835</v>
       </c>
       <c r="F91" s="8">
         <v>5</v>
@@ -7420,10 +7406,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N101">
-    <cfRule type="cellIs" dxfId="3" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="57" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="58" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
